--- a/Participation/R/output/LL_AIC_BIC_allclusters.xlsx
+++ b/Participation/R/output/LL_AIC_BIC_allclusters.xlsx
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>-4731.876582150143</v>
+        <v>-4740.148877003504</v>
       </c>
       <c r="D7">
         <v>42</v>
@@ -550,10 +550,10 @@
         <v>6806</v>
       </c>
       <c r="F7">
-        <v>9547.753164300286</v>
+        <v>9564.297754007008</v>
       </c>
       <c r="G7">
-        <v>9834.426678212842</v>
+        <v>9850.971267919564</v>
       </c>
     </row>
     <row r="8">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>-4734.986460739801</v>
+        <v>-4741.144565967343</v>
       </c>
       <c r="D8">
         <v>42</v>
@@ -577,10 +577,10 @@
         <v>6806</v>
       </c>
       <c r="F8">
-        <v>9553.972921479603</v>
+        <v>9566.289131934685</v>
       </c>
       <c r="G8">
-        <v>9840.646435392158</v>
+        <v>9852.962645847241</v>
       </c>
     </row>
     <row r="9">
@@ -591,11 +591,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MA7</t>
+          <t>daily</t>
         </is>
       </c>
       <c r="C9">
-        <v>-4742.285632882985</v>
+        <v>-4743.184255492744</v>
       </c>
       <c r="D9">
         <v>42</v>
@@ -604,10 +604,10 @@
         <v>6806</v>
       </c>
       <c r="F9">
-        <v>9568.57126576597</v>
+        <v>9570.368510985489</v>
       </c>
       <c r="G9">
-        <v>9855.244779678525</v>
+        <v>9857.042024898044</v>
       </c>
     </row>
     <row r="10">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>-4752.246453791625</v>
+        <v>-4746.026370383634</v>
       </c>
       <c r="D10">
         <v>42</v>
@@ -631,10 +631,10 @@
         <v>6806</v>
       </c>
       <c r="F10">
-        <v>9588.49290758325</v>
+        <v>9576.052740767267</v>
       </c>
       <c r="G10">
-        <v>9875.166421495805</v>
+        <v>9862.726254679823</v>
       </c>
     </row>
     <row r="11">
@@ -645,11 +645,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>MA7</t>
         </is>
       </c>
       <c r="C11">
-        <v>-4752.592434034432</v>
+        <v>-4746.06469694907</v>
       </c>
       <c r="D11">
         <v>42</v>
@@ -658,10 +658,10 @@
         <v>6806</v>
       </c>
       <c r="F11">
-        <v>9589.184868068864</v>
+        <v>9576.12939389814</v>
       </c>
       <c r="G11">
-        <v>9875.858381981419</v>
+        <v>9862.802907810696</v>
       </c>
     </row>
     <row r="12">
@@ -672,11 +672,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MA30</t>
+          <t>MA14</t>
         </is>
       </c>
       <c r="C12">
-        <v>-1878.88010452156</v>
+        <v>-1880.201887542589</v>
       </c>
       <c r="D12">
         <v>29</v>
@@ -685,10 +685,10 @@
         <v>2581</v>
       </c>
       <c r="F12">
-        <v>3815.76020904312</v>
+        <v>3818.403775085178</v>
       </c>
       <c r="G12">
-        <v>3985.58224283496</v>
+        <v>3988.225808877017</v>
       </c>
     </row>
     <row r="13">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>-1886.788027659843</v>
+        <v>-1881.288373175104</v>
       </c>
       <c r="D13">
         <v>29</v>
@@ -712,10 +712,10 @@
         <v>2581</v>
       </c>
       <c r="F13">
-        <v>3831.576055319685</v>
+        <v>3820.576746350207</v>
       </c>
       <c r="G13">
-        <v>4001.398089111525</v>
+        <v>3990.398780142047</v>
       </c>
     </row>
     <row r="14">
@@ -726,11 +726,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>t1daily</t>
         </is>
       </c>
       <c r="C14">
-        <v>-1887.056329490629</v>
+        <v>-1882.574084399443</v>
       </c>
       <c r="D14">
         <v>29</v>
@@ -739,10 +739,10 @@
         <v>2581</v>
       </c>
       <c r="F14">
-        <v>3832.112658981257</v>
+        <v>3823.148168798886</v>
       </c>
       <c r="G14">
-        <v>4001.934692773097</v>
+        <v>3992.970202590725</v>
       </c>
     </row>
     <row r="15">
@@ -753,11 +753,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MA14</t>
+          <t>daily</t>
         </is>
       </c>
       <c r="C15">
-        <v>-1887.157601787371</v>
+        <v>-1883.638606643874</v>
       </c>
       <c r="D15">
         <v>29</v>
@@ -766,10 +766,10 @@
         <v>2581</v>
       </c>
       <c r="F15">
-        <v>3832.315203574742</v>
+        <v>3825.277213287749</v>
       </c>
       <c r="G15">
-        <v>4002.137237366582</v>
+        <v>3995.099247079589</v>
       </c>
     </row>
     <row r="16">
@@ -780,11 +780,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>t1daily</t>
+          <t>MA30</t>
         </is>
       </c>
       <c r="C16">
-        <v>-1889.910399575993</v>
+        <v>-1884.072995429789</v>
       </c>
       <c r="D16">
         <v>29</v>
@@ -793,10 +793,10 @@
         <v>2581</v>
       </c>
       <c r="F16">
-        <v>3837.820799151986</v>
+        <v>3826.145990859577</v>
       </c>
       <c r="G16">
-        <v>4007.642832943826</v>
+        <v>3995.968024651417</v>
       </c>
     </row>
     <row r="17">
@@ -807,11 +807,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MA14</t>
+          <t>daily</t>
         </is>
       </c>
       <c r="C17">
-        <v>-1682.898335080933</v>
+        <v>-1683.57749626962</v>
       </c>
       <c r="D17">
         <v>33</v>
@@ -820,10 +820,10 @@
         <v>2481</v>
       </c>
       <c r="F17">
-        <v>3431.796670161866</v>
+        <v>3433.154992539239</v>
       </c>
       <c r="G17">
-        <v>3623.738430623695</v>
+        <v>3625.096753001068</v>
       </c>
     </row>
     <row r="18">
@@ -834,11 +834,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MA30</t>
+          <t>MA14</t>
         </is>
       </c>
       <c r="C18">
-        <v>-1683.214214815039</v>
+        <v>-1685.873243891131</v>
       </c>
       <c r="D18">
         <v>33</v>
@@ -847,10 +847,10 @@
         <v>2481</v>
       </c>
       <c r="F18">
-        <v>3432.428429630077</v>
+        <v>3437.746487782262</v>
       </c>
       <c r="G18">
-        <v>3624.370190091906</v>
+        <v>3629.688248244091</v>
       </c>
     </row>
     <row r="19">
@@ -861,11 +861,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MA7</t>
+          <t>MA30</t>
         </is>
       </c>
       <c r="C19">
-        <v>-1686.902083640136</v>
+        <v>-1685.88312176758</v>
       </c>
       <c r="D19">
         <v>33</v>
@@ -874,10 +874,10 @@
         <v>2481</v>
       </c>
       <c r="F19">
-        <v>3439.804167280272</v>
+        <v>3437.76624353516</v>
       </c>
       <c r="G19">
-        <v>3631.745927742102</v>
+        <v>3629.708003996989</v>
       </c>
     </row>
     <row r="20">
@@ -888,11 +888,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>MA7</t>
         </is>
       </c>
       <c r="C20">
-        <v>-1687.943473582105</v>
+        <v>-1687.885714398883</v>
       </c>
       <c r="D20">
         <v>33</v>
@@ -901,10 +901,10 @@
         <v>2481</v>
       </c>
       <c r="F20">
-        <v>3441.886947164209</v>
+        <v>3441.771428797765</v>
       </c>
       <c r="G20">
-        <v>3633.828707626039</v>
+        <v>3633.713189259594</v>
       </c>
     </row>
     <row r="21">
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>-1690.185382644464</v>
+        <v>-1688.537494147114</v>
       </c>
       <c r="D21">
         <v>33</v>
@@ -928,10 +928,10 @@
         <v>2481</v>
       </c>
       <c r="F21">
-        <v>3446.370765288928</v>
+        <v>3443.074988294229</v>
       </c>
       <c r="G21">
-        <v>3638.312525750757</v>
+        <v>3635.016748756058</v>
       </c>
     </row>
   </sheetData>
